--- a/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -402,7 +402,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.790625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -472,7 +472,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="6.910625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="5.080625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="5.060625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -402,8 +402,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.500625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="2.700625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="11.860625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="3.550625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -471,8 +471,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="5.850625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="4.500625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="6.580625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="5.200625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -402,8 +402,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.860625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="3.550625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.190625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="5.600625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -471,8 +471,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="6.580625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="5.200625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="8.310625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.530625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -402,8 +402,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.190625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="5.600625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.850625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="5.790625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -471,8 +471,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.310625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.530625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="8.640625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.760625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -402,8 +402,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.850625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="5.790625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.908675" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="5.521159" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -471,8 +471,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.640625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.760625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="8.176316" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.425653" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -402,8 +402,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.850625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="3.960625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.890625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="4.070625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -471,8 +471,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="6.910625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="5.080625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="6.950625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="5.110625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -431,7 +431,7 @@
       <x:c r="A5" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="n">
+      <x:c r="B5" s="0">
         <x:v>30</x:v>
       </x:c>
     </x:row>
@@ -439,7 +439,7 @@
       <x:c r="A6" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="0">
         <x:v>25</x:v>
       </x:c>
     </x:row>
@@ -447,7 +447,7 @@
       <x:c r="A7" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="n">
+      <x:c r="B7" s="0">
         <x:v>29</x:v>
       </x:c>
     </x:row>
@@ -487,7 +487,7 @@
       <x:c r="A2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="n">
+      <x:c r="B2" s="0">
         <x:v>30</x:v>
       </x:c>
     </x:row>
@@ -495,7 +495,7 @@
       <x:c r="A3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="0">
         <x:v>25</x:v>
       </x:c>
     </x:row>
@@ -503,7 +503,7 @@
       <x:c r="A4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="0">
         <x:v>29</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>People Count:</x:t>
   </x:si>
@@ -402,8 +402,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.890625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="4.070625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="2.996339" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -471,8 +471,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="6.950625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="5.110625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="5.996339" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="4.139196" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -461,7 +461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/NamedRanges.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Presentation" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Data" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Presentation" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Data" sheetId="2" r:id="rId3"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="PeopleCount" localSheetId="0">Presentation!$B$1:$B$1</x:definedName>
